--- a/StructureDefinition-ext-R5-CoverageEligibilityRequest.item.xlsx
+++ b/StructureDefinition-ext-R5-CoverageEligibilityRequest.item.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="242">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,15 +452,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Benefit categories such as: oral, medical, vision etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-benefitcategory-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:productOrService</t>
   </si>
   <si>
@@ -495,12 +486,6 @@
     <t>Extension.extension:productOrService.value[x]</t>
   </si>
   <si>
-    <t>Allowable service and product codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-uscls-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:modifier</t>
   </si>
   <si>
@@ -535,12 +520,6 @@
     <t>Extension.extension:modifier.value[x]</t>
   </si>
   <si>
-    <t>Item type or modifiers codes, eg for Oral whether the treatment is cosmetic or associated with TMJ, or an appliance was lost or stolen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-claim-modifiers-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:provider</t>
   </si>
   <si>
@@ -572,7 +551,7 @@
     <t>Extension.extension:provider.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -607,7 +586,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -677,7 +656,7 @@
     <t>Extension.extension:facility.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -746,13 +725,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1)</t>
-  </si>
-  <si>
-    <t>ICD10 Diagnostic codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-icd-10-for-R4</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition)</t>
   </si>
   <si>
     <t>Extension.extension:diagnosis.url</t>
@@ -805,7 +778,7 @@
     <t>Extension.extension:detail.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
 </sst>
@@ -1156,8 +1129,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="108.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.5703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2600,13 +2573,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2644,13 +2617,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2675,16 +2648,16 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2753,7 +2726,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2856,7 +2829,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2961,7 +2934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3004,7 +2977,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3066,7 +3039,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -3095,13 +3068,13 @@
         <v>137</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3127,13 +3100,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3171,13 +3144,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3202,16 +3175,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3280,7 +3253,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3383,7 +3356,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3488,7 +3461,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3531,7 +3504,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3593,7 +3566,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3622,13 +3595,13 @@
         <v>137</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3654,13 +3627,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3698,13 +3671,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3729,14 +3702,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3805,7 +3778,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3908,7 +3881,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4013,7 +3986,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4056,7 +4029,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4118,7 +4091,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -4144,13 +4117,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4221,13 +4194,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4252,14 +4225,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4328,7 +4301,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4431,7 +4404,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4536,7 +4509,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4579,7 +4552,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4641,7 +4614,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4667,13 +4640,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4744,13 +4717,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4775,14 +4748,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4851,7 +4824,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4954,7 +4927,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5059,7 +5032,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5102,7 +5075,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5164,7 +5137,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -5190,13 +5163,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5267,13 +5240,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5298,14 +5271,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5374,7 +5347,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5477,7 +5450,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5582,7 +5555,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5625,7 +5598,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5687,7 +5660,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -5713,13 +5686,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5790,13 +5763,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5821,14 +5794,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5897,7 +5870,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -6000,7 +5973,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -6103,13 +6076,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6134,14 +6107,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6210,10 +6183,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6313,10 +6286,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6418,10 +6391,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6461,7 +6434,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6523,10 +6496,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6549,13 +6522,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6582,13 +6555,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -6626,7 +6599,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6669,7 +6642,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6731,7 +6704,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6757,13 +6730,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6834,13 +6807,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6865,14 +6838,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6941,7 +6914,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7044,7 +7017,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7149,7 +7122,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7192,7 +7165,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7254,7 +7227,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7280,13 +7253,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7488,13 +7461,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
